--- a/.NET/SIC.Labs.First/Files/Results/6_studentsResults.xlsx
+++ b/.NET/SIC.Labs.First/Files/Results/6_studentsResults.xlsx
@@ -12,7 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
   <si>
     <t>Biguscus</t>
   </si>
@@ -147,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -192,21 +204,21 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -248,21 +260,35 @@
         <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
